--- a/results/mp/deberta/corona/confidence/84/stop-words-topk-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-topk-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,159 +46,189 @@
     <t>panic</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>grocery</t>
+    <t>us</t>
   </si>
   <si>
     <t>consumer</t>
   </si>
   <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>us</t>
+    <t>supermarket</t>
   </si>
   <si>
     <t>toilet</t>
   </si>
   <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
     <t>corona</t>
   </si>
   <si>
@@ -208,13 +238,13 @@
     <t>time</t>
   </si>
   <si>
+    <t>people</t>
+  </si>
+  <si>
     <t>workers</t>
   </si>
   <si>
     <t>go</t>
-  </si>
-  <si>
-    <t>people</t>
   </si>
   <si>
     <t>food</t>
@@ -575,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q59"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -583,10 +613,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -644,13 +674,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.547945205479452</v>
+        <v>0.5513698630136986</v>
       </c>
       <c r="C3">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D3">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -662,31 +692,31 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K3">
-        <v>0.9655172413793104</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
         <v>56</v>
       </c>
       <c r="M3">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N3">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -694,13 +724,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.2209302325581395</v>
+        <v>0.248062015503876</v>
       </c>
       <c r="C4">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="D4">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -712,223 +742,175 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4">
+        <v>0.8913043478260869</v>
+      </c>
+      <c r="L4">
+        <v>41</v>
+      </c>
+      <c r="M4">
+        <v>41</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="J5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="L5">
+        <v>32</v>
+      </c>
+      <c r="M5">
+        <v>32</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="J6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K4">
-        <v>0.8803418803418803</v>
-      </c>
-      <c r="L4">
-        <v>103</v>
-      </c>
-      <c r="M4">
+      <c r="K6">
+        <v>0.8833333333333333</v>
+      </c>
+      <c r="L6">
         <v>106</v>
       </c>
-      <c r="N4">
-        <v>0.97</v>
-      </c>
-      <c r="O4">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P4" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q4">
+      <c r="M6">
+        <v>106</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>0.01641199773627617</v>
-      </c>
-      <c r="C5">
-        <v>29</v>
-      </c>
-      <c r="D5">
-        <v>405</v>
-      </c>
-      <c r="E5">
-        <v>0.93</v>
-      </c>
-      <c r="F5">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1738</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5">
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="L5">
-        <v>39</v>
-      </c>
-      <c r="M5">
-        <v>40</v>
-      </c>
-      <c r="N5">
-        <v>0.97</v>
-      </c>
-      <c r="O5">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>0.0115606936416185</v>
-      </c>
-      <c r="C6">
-        <v>30</v>
-      </c>
-      <c r="D6">
-        <v>542</v>
-      </c>
-      <c r="E6">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F6">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>2565</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6">
-        <v>0.8503937007874016</v>
-      </c>
-      <c r="L6">
-        <v>108</v>
-      </c>
-      <c r="M6">
-        <v>109</v>
-      </c>
-      <c r="N6">
-        <v>0.99</v>
-      </c>
-      <c r="O6">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="P6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="J7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7">
+        <v>0.8482142857142857</v>
+      </c>
+      <c r="L7">
+        <v>95</v>
+      </c>
+      <c r="M7">
+        <v>95</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>17</v>
-      </c>
-      <c r="K7">
-        <v>0.8375</v>
-      </c>
-      <c r="L7">
-        <v>67</v>
-      </c>
-      <c r="M7">
-        <v>69</v>
-      </c>
-      <c r="N7">
-        <v>0.97</v>
-      </c>
-      <c r="O7">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K8">
-        <v>0.8272727272727273</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L8">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="M8">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="N8">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K9">
-        <v>0.7452229299363057</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L9">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="M9">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="N9">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K10">
-        <v>0.7301587301587301</v>
+        <v>0.8046875</v>
       </c>
       <c r="L10">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="M10">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -940,151 +922,151 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K11">
-        <v>0.6732673267326733</v>
+        <v>0.75</v>
       </c>
       <c r="L11">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="M11">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="N11">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K12">
-        <v>0.6666666666666666</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L12">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="M12">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="N12">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K13">
-        <v>0.6434782608695652</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L13">
-        <v>148</v>
+        <v>46</v>
       </c>
       <c r="M13">
-        <v>157</v>
+        <v>46</v>
       </c>
       <c r="N13">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>82</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K14">
-        <v>0.6373626373626373</v>
+        <v>0.7075471698113207</v>
       </c>
       <c r="L14">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="M14">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="N14">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K15">
-        <v>0.6140350877192983</v>
+        <v>0.7068965517241379</v>
       </c>
       <c r="L15">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="M15">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="N15">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K16">
-        <v>0.574468085106383</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="L16">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="M16">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1096,177 +1078,177 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K17">
-        <v>0.5482758620689655</v>
+        <v>0.6875</v>
       </c>
       <c r="L17">
-        <v>159</v>
+        <v>33</v>
       </c>
       <c r="M17">
-        <v>164</v>
+        <v>33</v>
       </c>
       <c r="N17">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>131</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K18">
-        <v>0.5412844036697247</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L18">
-        <v>177</v>
+        <v>64</v>
       </c>
       <c r="M18">
-        <v>190</v>
+        <v>64</v>
       </c>
       <c r="N18">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>150</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K19">
-        <v>0.5264550264550265</v>
+        <v>0.6694560669456067</v>
       </c>
       <c r="L19">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="M19">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="N19">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>179</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K20">
-        <v>0.5223880597014925</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L20">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M20">
         <v>38</v>
       </c>
       <c r="N20">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K21">
-        <v>0.5</v>
+        <v>0.5735294117647058</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>195</v>
       </c>
       <c r="M21">
-        <v>34</v>
+        <v>195</v>
       </c>
       <c r="N21">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>31</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K22">
-        <v>0.4659090909090909</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L22">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="N22">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K23">
-        <v>0.423728813559322</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M23">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1278,186 +1260,186 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K24">
-        <v>0.3263157894736842</v>
+        <v>0.5274151436031331</v>
       </c>
       <c r="L24">
-        <v>31</v>
+        <v>202</v>
       </c>
       <c r="M24">
-        <v>33</v>
+        <v>202</v>
       </c>
       <c r="N24">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>64</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K25">
-        <v>0.323943661971831</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L25">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="M25">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="N25">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>144</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K26">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="L26">
         <v>36</v>
       </c>
-      <c r="K26">
-        <v>0.2884615384615384</v>
-      </c>
-      <c r="L26">
-        <v>45</v>
-      </c>
       <c r="M26">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="N26">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>111</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K27">
-        <v>0.279126213592233</v>
+        <v>0.5050847457627119</v>
       </c>
       <c r="L27">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="M27">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="N27">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>297</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K28">
-        <v>0.2732919254658385</v>
+        <v>0.46875</v>
       </c>
       <c r="L28">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="M28">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="N28">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>117</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K29">
-        <v>0.2547770700636943</v>
+        <v>0.3711340206185567</v>
       </c>
       <c r="L29">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M29">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="N29">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>117</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K30">
-        <v>0.2408759124087591</v>
+        <v>0.3417721518987342</v>
       </c>
       <c r="L30">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="M30">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
         <v>104</v>
@@ -1465,68 +1447,68 @@
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K31">
-        <v>0.2402912621359223</v>
+        <v>0.3255813953488372</v>
       </c>
       <c r="L31">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="M31">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="N31">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>313</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K32">
-        <v>0.2042253521126761</v>
+        <v>0.3251533742331288</v>
       </c>
       <c r="L32">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="M32">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="N32">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K33">
-        <v>0.2040816326530612</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="L33">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M33">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1538,177 +1520,177 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>117</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K34">
-        <v>0.1937984496124031</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L34">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="M34">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N34">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>104</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K35">
-        <v>0.1893939393939394</v>
+        <v>0.284688995215311</v>
       </c>
       <c r="L35">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="M35">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="N35">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>107</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K36">
-        <v>0.1889140271493213</v>
+        <v>0.2605042016806723</v>
       </c>
       <c r="L36">
-        <v>167</v>
+        <v>31</v>
       </c>
       <c r="M36">
-        <v>177</v>
+        <v>31</v>
       </c>
       <c r="N36">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>717</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K37">
-        <v>0.1882352941176471</v>
+        <v>0.2543859649122807</v>
       </c>
       <c r="L37">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="M37">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="N37">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="O37">
-        <v>0.12</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>276</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K38">
-        <v>0.1809523809523809</v>
+        <v>0.2405063291139241</v>
       </c>
       <c r="L38">
         <v>38</v>
       </c>
       <c r="M38">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N38">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="O38">
-        <v>0.12</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>172</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K39">
-        <v>0.1806853582554517</v>
+        <v>0.2379807692307692</v>
       </c>
       <c r="L39">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="M39">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="N39">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>263</v>
+        <v>317</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K40">
-        <v>0.1782608695652174</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="L40">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M40">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1720,73 +1702,73 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>189</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="K41">
-        <v>0.1778618732261116</v>
+        <v>0.2327586206896552</v>
       </c>
       <c r="L41">
-        <v>376</v>
+        <v>27</v>
       </c>
       <c r="M41">
-        <v>405</v>
+        <v>27</v>
       </c>
       <c r="N41">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>1738</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K42">
-        <v>0.1759656652360515</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L42">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="M42">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="N42">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>192</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K43">
-        <v>0.1757575757575758</v>
+        <v>0.2255639097744361</v>
       </c>
       <c r="L43">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M43">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1798,137 +1780,137 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>136</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K44">
-        <v>0.1752577319587629</v>
+        <v>0.2130434782608696</v>
       </c>
       <c r="L44">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="M44">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="N44">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>400</v>
+        <v>181</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K45">
-        <v>0.1739618406285073</v>
+        <v>0.2116788321167883</v>
       </c>
       <c r="L45">
-        <v>155</v>
+        <v>29</v>
       </c>
       <c r="M45">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="N45">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>736</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K46">
-        <v>0.1684867394695788</v>
+        <v>0.2067510548523207</v>
       </c>
       <c r="L46">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="M46">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="N46">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>533</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K47">
-        <v>0.1684782608695652</v>
+        <v>0.2048929663608563</v>
       </c>
       <c r="L47">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="M47">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="N47">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>153</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="K48">
-        <v>0.1663958401039974</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="L48">
-        <v>512</v>
+        <v>99</v>
       </c>
       <c r="M48">
-        <v>542</v>
+        <v>99</v>
       </c>
       <c r="N48">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>2565</v>
+        <v>387</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1936,13 +1918,13 @@
         <v>57</v>
       </c>
       <c r="K49">
-        <v>0.1610486891385768</v>
+        <v>0.2014925373134328</v>
       </c>
       <c r="L49">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="M49">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1954,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>224</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1962,25 +1944,25 @@
         <v>58</v>
       </c>
       <c r="K50">
-        <v>0.1519434628975265</v>
+        <v>0.1977077363896848</v>
       </c>
       <c r="L50">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="M50">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="N50">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>480</v>
+        <v>280</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1988,25 +1970,25 @@
         <v>59</v>
       </c>
       <c r="K51">
-        <v>0.1367323290845887</v>
+        <v>0.1968680089485459</v>
       </c>
       <c r="L51">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="M51">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="N51">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>745</v>
+        <v>718</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2014,25 +1996,25 @@
         <v>60</v>
       </c>
       <c r="K52">
-        <v>0.1335504885993485</v>
+        <v>0.196078431372549</v>
       </c>
       <c r="L52">
-        <v>41</v>
+        <v>420</v>
       </c>
       <c r="M52">
-        <v>42</v>
+        <v>421</v>
       </c>
       <c r="N52">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>266</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2040,25 +2022,25 @@
         <v>61</v>
       </c>
       <c r="K53">
-        <v>0.1245283018867925</v>
+        <v>0.1953488372093023</v>
       </c>
       <c r="L53">
-        <v>396</v>
+        <v>42</v>
       </c>
       <c r="M53">
-        <v>417</v>
+        <v>42</v>
       </c>
       <c r="N53">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>2784</v>
+        <v>173</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2066,25 +2048,25 @@
         <v>62</v>
       </c>
       <c r="K54">
-        <v>0.1089023336214347</v>
+        <v>0.1945945945945946</v>
       </c>
       <c r="L54">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="M54">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="N54">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>1031</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2092,25 +2074,25 @@
         <v>63</v>
       </c>
       <c r="K55">
-        <v>0.08992805755395683</v>
+        <v>0.1844444444444444</v>
       </c>
       <c r="L55">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="M55">
-        <v>28</v>
+        <v>167</v>
       </c>
       <c r="N55">
-        <v>0.89</v>
+        <v>0.99</v>
       </c>
       <c r="O55">
-        <v>0.11</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>253</v>
+        <v>734</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2118,25 +2100,25 @@
         <v>64</v>
       </c>
       <c r="K56">
-        <v>0.08695652173913043</v>
+        <v>0.1836734693877551</v>
       </c>
       <c r="L56">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M56">
         <v>27</v>
       </c>
       <c r="N56">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>273</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2144,25 +2126,25 @@
         <v>65</v>
       </c>
       <c r="K57">
-        <v>0.08077994428969359</v>
+        <v>0.1753246753246753</v>
       </c>
       <c r="L57">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="M57">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="N57">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>330</v>
+        <v>254</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2170,25 +2152,25 @@
         <v>66</v>
       </c>
       <c r="K58">
-        <v>0.06481481481481481</v>
+        <v>0.1728911783644559</v>
       </c>
       <c r="L58">
-        <v>35</v>
+        <v>537</v>
       </c>
       <c r="M58">
-        <v>40</v>
+        <v>538</v>
       </c>
       <c r="N58">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>505</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2196,25 +2178,285 @@
         <v>67</v>
       </c>
       <c r="K59">
-        <v>0.05427974947807934</v>
+        <v>0.1722846441947566</v>
       </c>
       <c r="L59">
+        <v>46</v>
+      </c>
+      <c r="M59">
+        <v>46</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K60">
+        <v>0.1635802469135803</v>
+      </c>
+      <c r="L60">
+        <v>106</v>
+      </c>
+      <c r="M60">
+        <v>108</v>
+      </c>
+      <c r="N60">
+        <v>0.98</v>
+      </c>
+      <c r="O60">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K61">
+        <v>0.1557093425605536</v>
+      </c>
+      <c r="L61">
+        <v>135</v>
+      </c>
+      <c r="M61">
+        <v>135</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K62">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="L62">
+        <v>81</v>
+      </c>
+      <c r="M62">
+        <v>81</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K63">
+        <v>0.123827392120075</v>
+      </c>
+      <c r="L63">
+        <v>396</v>
+      </c>
+      <c r="M63">
+        <v>399</v>
+      </c>
+      <c r="N63">
+        <v>0.99</v>
+      </c>
+      <c r="O63">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K64">
+        <v>0.1024978466838932</v>
+      </c>
+      <c r="L64">
+        <v>119</v>
+      </c>
+      <c r="M64">
+        <v>119</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K65">
+        <v>0.099644128113879</v>
+      </c>
+      <c r="L65">
+        <v>28</v>
+      </c>
+      <c r="M65">
+        <v>28</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K66">
+        <v>0.09558823529411764</v>
+      </c>
+      <c r="L66">
         <v>52</v>
       </c>
-      <c r="M59">
-        <v>62</v>
-      </c>
-      <c r="N59">
-        <v>0.84</v>
-      </c>
-      <c r="O59">
-        <v>0.16</v>
-      </c>
-      <c r="P59" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q59">
-        <v>906</v>
+      <c r="M66">
+        <v>53</v>
+      </c>
+      <c r="N66">
+        <v>0.98</v>
+      </c>
+      <c r="O66">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P66" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
+      <c r="J67" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K67">
+        <v>0.08666666666666667</v>
+      </c>
+      <c r="L67">
+        <v>26</v>
+      </c>
+      <c r="M67">
+        <v>26</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
+      <c r="J68" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K68">
+        <v>0.07799442896935933</v>
+      </c>
+      <c r="L68">
+        <v>28</v>
+      </c>
+      <c r="M68">
+        <v>29</v>
+      </c>
+      <c r="N68">
+        <v>0.97</v>
+      </c>
+      <c r="O68">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P68" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="69" spans="10:17">
+      <c r="J69" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K69">
+        <v>0.0734229576008273</v>
+      </c>
+      <c r="L69">
+        <v>71</v>
+      </c>
+      <c r="M69">
+        <v>72</v>
+      </c>
+      <c r="N69">
+        <v>0.99</v>
+      </c>
+      <c r="O69">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P69" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>896</v>
       </c>
     </row>
   </sheetData>
